--- a/LegacyDatabase/Reviews.xlsx
+++ b/LegacyDatabase/Reviews.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Cinema\LegacyDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB2D4E2-6F37-4D2E-9418-1F68E68CCDCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E155BE-70D8-4C59-9D74-489989BD7DBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Reviews" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="360">
   <si>
     <t>Id</t>
   </si>
@@ -9493,7 +9493,7 @@
   <dimension ref="A1:I355"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
